--- a/logs/inference_time_extractive_overall.xlsx
+++ b/logs/inference_time_extractive_overall.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelhermann/Source/DASP/code/dasp_onnx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelhermann/Source/DASP/code/dasp_onnx/logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E7B5A5-02C9-7E43-A61D-E0FDE26EB857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD39EBAE-32D1-1B41-9926-680E8BA9CCAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19140" yWindow="-21100" windowWidth="35840" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="34">
   <si>
     <t>adapter</t>
   </si>
@@ -128,10 +128,13 @@
     <t>Spalte1</t>
   </si>
   <si>
-    <t>AV</t>
-  </si>
-  <si>
     <t>min to max</t>
+  </si>
+  <si>
+    <t>rob</t>
+  </si>
+  <si>
+    <t>bert</t>
   </si>
 </sst>
 </file>
@@ -203,16 +206,65 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="8">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -248,40 +300,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -296,16 +314,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F1B4376A-F5BE-7C4C-8306-C07BE2B2A623}" name="Tabelle1" displayName="Tabelle1" ref="A1:T49" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F1B4376A-F5BE-7C4C-8306-C07BE2B2A623}" name="Tabelle1" displayName="Tabelle1" ref="A1:T49" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A1:T49" xr:uid="{F1B4376A-F5BE-7C4C-8306-C07BE2B2A623}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Base"/>
-      </filters>
+    <filterColumn colId="14">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T49">
+    <sortCondition ref="B1:B49"/>
+  </sortState>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{6939D9E7-D8C1-8645-BDF8-39530C426886}" name="Spalte1" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{6939D9E7-D8C1-8645-BDF8-39530C426886}" name="Spalte1" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{3AE808AF-F6C2-364D-B2C6-2DE6EB0658D5}" name="adapter"/>
     <tableColumn id="3" xr3:uid="{1180745C-773E-1544-B1F3-EC59541EECE7}" name="reader"/>
     <tableColumn id="4" xr3:uid="{9EE03FEB-5A0C-C74E-A6B5-0B1CE369BA82}" name="model_name"/>
@@ -319,24 +340,22 @@
     <tableColumn id="12" xr3:uid="{3C338D86-ADF1-4940-A3D6-7457829B0FB3}" name="max_time_per_token"/>
     <tableColumn id="13" xr3:uid="{908819C0-1E47-BB4C-A84F-5DE342059AFD}" name="runs"/>
     <tableColumn id="14" xr3:uid="{8E1A97C7-BC70-204A-ACE0-85FC31AAFFE4}" name="av_seq_length"/>
-    <tableColumn id="15" xr3:uid="{0C9D2E05-618D-4146-BBE4-2438946151C8}" name="to base quant">
-      <calculatedColumnFormula>F3/F2</calculatedColumnFormula>
+    <tableColumn id="15" xr3:uid="{0C9D2E05-618D-4146-BBE4-2438946151C8}" name="to base quant" dataDxfId="0">
+      <calculatedColumnFormula>F3/Tabelle1[[#This Row],[median_time]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{5E70932A-ABE0-CF45-8860-FB4BB6D3F832}" name="to onnx">
-      <calculatedColumnFormula>F4/F2</calculatedColumnFormula>
+    <tableColumn id="16" xr3:uid="{5E70932A-ABE0-CF45-8860-FB4BB6D3F832}" name="to onnx" dataDxfId="3">
+      <calculatedColumnFormula>F4/Tabelle1[[#This Row],[median_time]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{CBC4448E-9811-BF4E-BDB7-D7C5138B21CE}" name="to onnx-opt">
-      <calculatedColumnFormula>F5/F2</calculatedColumnFormula>
+    <tableColumn id="17" xr3:uid="{CBC4448E-9811-BF4E-BDB7-D7C5138B21CE}" name="to onnx-opt" dataDxfId="2">
+      <calculatedColumnFormula>F5/Tabelle1[[#This Row],[median_time]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{6BDD8486-848D-0440-A4AE-FB9DBACB62AF}" name="to onnx quant">
-      <calculatedColumnFormula>F6/F2</calculatedColumnFormula>
+    <tableColumn id="18" xr3:uid="{6BDD8486-848D-0440-A4AE-FB9DBACB62AF}" name="to onnx quant" dataDxfId="4">
+      <calculatedColumnFormula>F6/Tabelle1[[#This Row],[median_time]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{6E46DF7A-6CF1-DD40-810C-0EEC289E75D5}" name="to onnx-opt quant">
-      <calculatedColumnFormula>F7/F2</calculatedColumnFormula>
+    <tableColumn id="19" xr3:uid="{6E46DF7A-6CF1-DD40-810C-0EEC289E75D5}" name="to onnx-opt quant" dataDxfId="1">
+      <calculatedColumnFormula>F7/Tabelle1[[#This Row],[median_time]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{F840E59F-A7CD-0941-ABAD-5FEE396E3FA8}" name="min to max" dataDxfId="0">
-      <calculatedColumnFormula>G7/H2</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="20" xr3:uid="{F840E59F-A7CD-0941-ABAD-5FEE396E3FA8}" name="min to max" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -630,13 +649,14 @@
   <dimension ref="A1:T54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T44" sqref="T44"/>
+      <selection activeCell="P56" sqref="P56:P57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" customWidth="1"/>
     <col min="6" max="6" width="15.1640625" customWidth="1"/>
@@ -713,7 +733,7 @@
         <v>29</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -760,28 +780,24 @@
         <v>246.41</v>
       </c>
       <c r="O2">
-        <f>F3/F2</f>
+        <f>F3/Tabelle1[[#This Row],[median_time]]</f>
         <v>1.1058545417022385</v>
       </c>
       <c r="P2">
-        <f>F4/F2</f>
+        <f>F4/Tabelle1[[#This Row],[median_time]]</f>
         <v>0.72829898406206506</v>
       </c>
       <c r="Q2">
-        <f>F5/F2</f>
+        <f>F5/Tabelle1[[#This Row],[median_time]]</f>
+        <v>0.5213497059127038</v>
+      </c>
+      <c r="R2">
+        <f>F6/Tabelle1[[#This Row],[median_time]]</f>
         <v>0.75847881351957491</v>
       </c>
-      <c r="R2">
-        <f>F6/F2</f>
-        <v>0.5213497059127038</v>
-      </c>
       <c r="S2">
-        <f>F7/F2</f>
+        <f>F7/Tabelle1[[#This Row],[median_time]]</f>
         <v>0.50826164857740674</v>
-      </c>
-      <c r="T2">
-        <f t="shared" ref="T2:T49" si="0">G7/H2</f>
-        <v>0.40106468596709716</v>
       </c>
     </row>
     <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
@@ -874,7 +890,7 @@
     </row>
     <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -883,31 +899,31 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5">
-        <v>97.478675842285142</v>
+        <v>66.75724983215332</v>
       </c>
       <c r="F5">
-        <v>96.386194229125977</v>
+        <v>66.252231597900391</v>
       </c>
       <c r="G5">
-        <v>87.939023971557617</v>
+        <v>62.853097915649407</v>
       </c>
       <c r="H5">
-        <v>109.9531650543213</v>
+        <v>73.895931243896484</v>
       </c>
       <c r="I5">
-        <v>0.62889468285345251</v>
+        <v>0.43069193440098907</v>
       </c>
       <c r="J5">
-        <v>0.62184641438145793</v>
+        <v>0.42743375224451863</v>
       </c>
       <c r="K5">
-        <v>87.939023971557617</v>
+        <v>62.853097915649407</v>
       </c>
       <c r="L5">
-        <v>109.9531650543213</v>
+        <v>73.895931243896484</v>
       </c>
       <c r="M5">
         <v>500</v>
@@ -918,7 +934,7 @@
     </row>
     <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -927,31 +943,31 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6">
-        <v>66.75724983215332</v>
+        <v>97.478675842285142</v>
       </c>
       <c r="F6">
-        <v>66.252231597900391</v>
+        <v>96.386194229125977</v>
       </c>
       <c r="G6">
-        <v>62.853097915649407</v>
+        <v>87.939023971557617</v>
       </c>
       <c r="H6">
-        <v>73.895931243896484</v>
+        <v>109.9531650543213</v>
       </c>
       <c r="I6">
-        <v>0.43069193440098907</v>
+        <v>0.62889468285345251</v>
       </c>
       <c r="J6">
-        <v>0.42743375224451863</v>
+        <v>0.62184641438145793</v>
       </c>
       <c r="K6">
-        <v>62.853097915649407</v>
+        <v>87.939023971557617</v>
       </c>
       <c r="L6">
-        <v>73.895931243896484</v>
+        <v>109.9531650543213</v>
       </c>
       <c r="M6">
         <v>500</v>
@@ -1048,28 +1064,24 @@
         <v>246.41</v>
       </c>
       <c r="O8">
-        <f>F9/F8</f>
+        <f>F9/Tabelle1[[#This Row],[median_time]]</f>
         <v>1.1154813479487105</v>
       </c>
       <c r="P8">
-        <f>F10/F8</f>
+        <f>F10/Tabelle1[[#This Row],[median_time]]</f>
         <v>0.7016980199459194</v>
       </c>
       <c r="Q8">
-        <f>F11/F8</f>
+        <f>F11/Tabelle1[[#This Row],[median_time]]</f>
+        <v>0.4997764806792081</v>
+      </c>
+      <c r="R8">
+        <f>F12/Tabelle1[[#This Row],[median_time]]</f>
         <v>0.69802358037972856</v>
       </c>
-      <c r="R8">
-        <f>F12/F8</f>
-        <v>0.4997764806792081</v>
-      </c>
       <c r="S8">
-        <f t="shared" ref="S3:S49" si="1">F13/F8</f>
+        <f>F13/Tabelle1[[#This Row],[median_time]]</f>
         <v>0.50496649027418383</v>
-      </c>
-      <c r="T8">
-        <f>G13/H8</f>
-        <v>0.42754262556932943</v>
       </c>
     </row>
     <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
@@ -1162,7 +1174,7 @@
     </row>
     <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1171,31 +1183,31 @@
         <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11">
-        <v>97.863864898681641</v>
+        <v>76.88603401184082</v>
       </c>
       <c r="F11">
-        <v>91.579914093017578</v>
+        <v>65.57011604309082</v>
       </c>
       <c r="G11">
-        <v>90.136051177978516</v>
+        <v>63.645839691162109</v>
       </c>
       <c r="H11">
-        <v>122.3289966583252</v>
+        <v>124.4442462921143</v>
       </c>
       <c r="I11">
-        <v>0.63137977353988162</v>
+        <v>0.49603892910865038</v>
       </c>
       <c r="J11">
-        <v>0.59083815543882312</v>
+        <v>0.42303300672961819</v>
       </c>
       <c r="K11">
-        <v>90.136051177978516</v>
+        <v>63.645839691162109</v>
       </c>
       <c r="L11">
-        <v>122.3289966583252</v>
+        <v>124.4442462921143</v>
       </c>
       <c r="M11">
         <v>500</v>
@@ -1206,7 +1218,7 @@
     </row>
     <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1215,31 +1227,31 @@
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12">
-        <v>76.88603401184082</v>
+        <v>97.863864898681641</v>
       </c>
       <c r="F12">
-        <v>65.57011604309082</v>
+        <v>91.579914093017578</v>
       </c>
       <c r="G12">
-        <v>63.645839691162109</v>
+        <v>90.136051177978516</v>
       </c>
       <c r="H12">
-        <v>124.4442462921143</v>
+        <v>122.3289966583252</v>
       </c>
       <c r="I12">
-        <v>0.49603892910865038</v>
+        <v>0.63137977353988162</v>
       </c>
       <c r="J12">
-        <v>0.42303300672961819</v>
+        <v>0.59083815543882312</v>
       </c>
       <c r="K12">
-        <v>63.645839691162109</v>
+        <v>90.136051177978516</v>
       </c>
       <c r="L12">
-        <v>124.4442462921143</v>
+        <v>122.3289966583252</v>
       </c>
       <c r="M12">
         <v>500</v>
@@ -1336,28 +1348,24 @@
         <v>312.62</v>
       </c>
       <c r="O14">
-        <f t="shared" ref="O3:O49" si="2">F15/F14</f>
+        <f>F15/Tabelle1[[#This Row],[median_time]]</f>
         <v>1.0428780284184738</v>
       </c>
       <c r="P14">
-        <f t="shared" ref="P3:P49" si="3">F16/F14</f>
+        <f>F16/Tabelle1[[#This Row],[median_time]]</f>
         <v>0.67173367845571708</v>
       </c>
       <c r="Q14">
-        <f t="shared" ref="Q3:Q49" si="4">F17/F14</f>
+        <f>F17/Tabelle1[[#This Row],[median_time]]</f>
+        <v>0.48467143803323537</v>
+      </c>
+      <c r="R14">
+        <f>F18/Tabelle1[[#This Row],[median_time]]</f>
         <v>0.64634945806269162</v>
       </c>
-      <c r="R14">
-        <f t="shared" ref="R3:R49" si="5">F18/F14</f>
-        <v>0.48467143803323537</v>
-      </c>
       <c r="S14">
-        <f t="shared" si="1"/>
+        <f>F19/Tabelle1[[#This Row],[median_time]]</f>
         <v>0.47063065793577402</v>
-      </c>
-      <c r="T14">
-        <f t="shared" si="0"/>
-        <v>0.23555826514509404</v>
       </c>
     </row>
     <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
@@ -1448,9 +1456,9 @@
         <v>312.62</v>
       </c>
     </row>
-    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
@@ -1459,31 +1467,31 @@
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E17">
-        <v>227.39787101745611</v>
+        <v>169.85883712768549</v>
       </c>
       <c r="F17">
-        <v>227.78129577636719</v>
+        <v>170.80402374267581</v>
       </c>
       <c r="G17">
-        <v>217.6668643951416</v>
+        <v>166.9771671295166</v>
       </c>
       <c r="H17">
-        <v>233.14189910888669</v>
+        <v>172.02877998352051</v>
       </c>
       <c r="I17">
-        <v>0.71284599065033238</v>
+        <v>0.53247284366045622</v>
       </c>
       <c r="J17">
-        <v>0.71404794914221692</v>
+        <v>0.53543581110556671</v>
       </c>
       <c r="K17">
-        <v>217.6668643951416</v>
+        <v>166.9771671295166</v>
       </c>
       <c r="L17">
-        <v>233.14189910888669</v>
+        <v>172.02877998352051</v>
       </c>
       <c r="M17">
         <v>500</v>
@@ -1492,9 +1500,9 @@
         <v>312.62</v>
       </c>
     </row>
-    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
@@ -1503,31 +1511,31 @@
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18">
-        <v>169.85883712768549</v>
+        <v>227.39787101745611</v>
       </c>
       <c r="F18">
-        <v>170.80402374267581</v>
+        <v>227.78129577636719</v>
       </c>
       <c r="G18">
-        <v>166.9771671295166</v>
+        <v>217.6668643951416</v>
       </c>
       <c r="H18">
-        <v>172.02877998352051</v>
+        <v>233.14189910888669</v>
       </c>
       <c r="I18">
-        <v>0.53247284366045622</v>
+        <v>0.71284599065033238</v>
       </c>
       <c r="J18">
-        <v>0.53543581110556671</v>
+        <v>0.71404794914221692</v>
       </c>
       <c r="K18">
-        <v>166.9771671295166</v>
+        <v>217.6668643951416</v>
       </c>
       <c r="L18">
-        <v>172.02877998352051</v>
+        <v>233.14189910888669</v>
       </c>
       <c r="M18">
         <v>500</v>
@@ -1536,7 +1544,7 @@
         <v>312.62</v>
       </c>
     </row>
-    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>1800</v>
       </c>
@@ -1580,7 +1588,7 @@
         <v>312.62</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>1900</v>
       </c>
@@ -1624,31 +1632,27 @@
         <v>312.62</v>
       </c>
       <c r="O20">
-        <f t="shared" si="2"/>
+        <f>F21/Tabelle1[[#This Row],[median_time]]</f>
         <v>1.0382565106809478</v>
       </c>
       <c r="P20">
-        <f t="shared" si="3"/>
+        <f>F22/Tabelle1[[#This Row],[median_time]]</f>
         <v>0.63707916350699756</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="4"/>
+        <f>F23/Tabelle1[[#This Row],[median_time]]</f>
+        <v>0.49715679384457934</v>
+      </c>
+      <c r="R20">
+        <f>F24/Tabelle1[[#This Row],[median_time]]</f>
         <v>0.62184796169125978</v>
       </c>
-      <c r="R20">
-        <f t="shared" si="5"/>
-        <v>0.49715679384457934</v>
-      </c>
       <c r="S20">
-        <f t="shared" si="1"/>
+        <f>F25/Tabelle1[[#This Row],[median_time]]</f>
         <v>0.46838689288904256</v>
       </c>
-      <c r="T20">
-        <f t="shared" si="0"/>
-        <v>0.43176427860853639</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>2000</v>
       </c>
@@ -1692,7 +1696,7 @@
         <v>312.62</v>
       </c>
     </row>
-    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>2100</v>
       </c>
@@ -1736,9 +1740,9 @@
         <v>312.62</v>
       </c>
     </row>
-    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
@@ -1747,31 +1751,31 @@
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E23">
-        <v>225.43826103210449</v>
+        <v>175.86178779602051</v>
       </c>
       <c r="F23">
-        <v>224.25127029418951</v>
+        <v>179.28504943847659</v>
       </c>
       <c r="G23">
-        <v>223.60014915466309</v>
+        <v>165.99702835083011</v>
       </c>
       <c r="H23">
-        <v>228.99127006530759</v>
+        <v>182.75690078735349</v>
       </c>
       <c r="I23">
-        <v>0.70670301263982593</v>
+        <v>0.55129087083392003</v>
       </c>
       <c r="J23">
-        <v>0.70298203853977881</v>
+        <v>0.56202209855321805</v>
       </c>
       <c r="K23">
-        <v>223.60014915466309</v>
+        <v>165.99702835083011</v>
       </c>
       <c r="L23">
-        <v>228.99127006530759</v>
+        <v>182.75690078735349</v>
       </c>
       <c r="M23">
         <v>500</v>
@@ -1780,9 +1784,9 @@
         <v>312.62</v>
       </c>
     </row>
-    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -1791,31 +1795,31 @@
         <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E24">
-        <v>175.86178779602051</v>
+        <v>225.43826103210449</v>
       </c>
       <c r="F24">
-        <v>179.28504943847659</v>
+        <v>224.25127029418951</v>
       </c>
       <c r="G24">
-        <v>165.99702835083011</v>
+        <v>223.60014915466309</v>
       </c>
       <c r="H24">
-        <v>182.75690078735349</v>
+        <v>228.99127006530759</v>
       </c>
       <c r="I24">
-        <v>0.55129087083392003</v>
+        <v>0.70670301263982593</v>
       </c>
       <c r="J24">
-        <v>0.56202209855321805</v>
+        <v>0.70298203853977881</v>
       </c>
       <c r="K24">
-        <v>165.99702835083011</v>
+        <v>223.60014915466309</v>
       </c>
       <c r="L24">
-        <v>182.75690078735349</v>
+        <v>228.99127006530759</v>
       </c>
       <c r="M24">
         <v>500</v>
@@ -1824,7 +1828,7 @@
         <v>312.62</v>
       </c>
     </row>
-    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>2400</v>
       </c>
@@ -1868,7 +1872,7 @@
         <v>312.62</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>2500</v>
       </c>
@@ -1912,31 +1916,27 @@
         <v>91.2</v>
       </c>
       <c r="O26">
-        <f t="shared" si="2"/>
+        <f>F27/Tabelle1[[#This Row],[median_time]]</f>
         <v>1.3272759137245409</v>
       </c>
       <c r="P26">
-        <f t="shared" si="3"/>
+        <f>F28/Tabelle1[[#This Row],[median_time]]</f>
         <v>0.72045599642813918</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="4"/>
+        <f>F29/Tabelle1[[#This Row],[median_time]]</f>
+        <v>0.57864561383011126</v>
+      </c>
+      <c r="R26">
+        <f>F30/Tabelle1[[#This Row],[median_time]]</f>
         <v>0.78552979123809208</v>
       </c>
-      <c r="R26">
-        <f>F30/F26</f>
-        <v>0.57864561383011126</v>
-      </c>
       <c r="S26">
-        <f t="shared" si="1"/>
+        <f>F31/Tabelle1[[#This Row],[median_time]]</f>
         <v>0.59259506532415884</v>
       </c>
-      <c r="T26">
-        <f t="shared" si="0"/>
-        <v>0.49193417348423302</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>2600</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>91.2</v>
       </c>
     </row>
-    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>2700</v>
       </c>
@@ -2024,9 +2024,9 @@
         <v>91.2</v>
       </c>
     </row>
-    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="B29" t="s">
         <v>23</v>
@@ -2035,31 +2035,31 @@
         <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E29">
-        <v>45.411539077758789</v>
+        <v>34.711217880249023</v>
       </c>
       <c r="F29">
-        <v>44.883012771606452</v>
+        <v>33.062219619750977</v>
       </c>
       <c r="G29">
-        <v>43.462991714477539</v>
+        <v>32.750129699707031</v>
       </c>
       <c r="H29">
-        <v>49.669742584228523</v>
+        <v>41.753053665161133</v>
       </c>
       <c r="I29">
-        <v>0.69863906273475063</v>
+        <v>0.53401873661921573</v>
       </c>
       <c r="J29">
-        <v>0.69050788879394531</v>
+        <v>0.50864953261155343</v>
       </c>
       <c r="K29">
-        <v>43.462991714477539</v>
+        <v>32.750129699707031</v>
       </c>
       <c r="L29">
-        <v>49.669742584228523</v>
+        <v>41.753053665161133</v>
       </c>
       <c r="M29">
         <v>500</v>
@@ -2068,9 +2068,9 @@
         <v>91.2</v>
       </c>
     </row>
-    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="B30" t="s">
         <v>23</v>
@@ -2079,31 +2079,31 @@
         <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E30">
-        <v>34.711217880249023</v>
+        <v>45.411539077758789</v>
       </c>
       <c r="F30">
-        <v>33.062219619750977</v>
+        <v>44.883012771606452</v>
       </c>
       <c r="G30">
-        <v>32.750129699707031</v>
+        <v>43.462991714477539</v>
       </c>
       <c r="H30">
-        <v>41.753053665161133</v>
+        <v>49.669742584228523</v>
       </c>
       <c r="I30">
-        <v>0.53401873661921573</v>
+        <v>0.69863906273475063</v>
       </c>
       <c r="J30">
-        <v>0.50864953261155343</v>
+        <v>0.69050788879394531</v>
       </c>
       <c r="K30">
-        <v>32.750129699707031</v>
+        <v>43.462991714477539</v>
       </c>
       <c r="L30">
-        <v>41.753053665161133</v>
+        <v>49.669742584228523</v>
       </c>
       <c r="M30">
         <v>500</v>
@@ -2112,7 +2112,7 @@
         <v>91.2</v>
       </c>
     </row>
-    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>3000</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>91.2</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>3100</v>
       </c>
@@ -2200,31 +2200,27 @@
         <v>91.2</v>
       </c>
       <c r="O32">
-        <f t="shared" si="2"/>
+        <f>F33/Tabelle1[[#This Row],[median_time]]</f>
         <v>1.2731216137092718</v>
       </c>
       <c r="P32">
-        <f t="shared" si="3"/>
+        <f>F34/Tabelle1[[#This Row],[median_time]]</f>
         <v>0.70406396120764303</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="4"/>
+        <f>F35/Tabelle1[[#This Row],[median_time]]</f>
+        <v>0.58569531836287003</v>
+      </c>
+      <c r="R32">
+        <f>F36/Tabelle1[[#This Row],[median_time]]</f>
         <v>0.79215906185830565</v>
       </c>
-      <c r="R32">
-        <f t="shared" si="5"/>
-        <v>0.58569531836287003</v>
-      </c>
       <c r="S32">
-        <f t="shared" si="1"/>
+        <f>F37/Tabelle1[[#This Row],[median_time]]</f>
         <v>0.57696209003719234</v>
       </c>
-      <c r="T32">
-        <f t="shared" si="0"/>
-        <v>0.41865136562417582</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>3200</v>
       </c>
@@ -2268,7 +2264,7 @@
         <v>91.2</v>
       </c>
     </row>
-    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>3300</v>
       </c>
@@ -2312,9 +2308,9 @@
         <v>91.2</v>
       </c>
     </row>
-    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="B35" t="s">
         <v>23</v>
@@ -2323,31 +2319,31 @@
         <v>21</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E35">
-        <v>48.135185241699219</v>
+        <v>36.086893081665039</v>
       </c>
       <c r="F35">
-        <v>45.804023742675781</v>
+        <v>33.865928649902337</v>
       </c>
       <c r="G35">
-        <v>44.567108154296882</v>
+        <v>32.656192779541023</v>
       </c>
       <c r="H35">
-        <v>58.852910995483398</v>
+        <v>45.332193374633789</v>
       </c>
       <c r="I35">
-        <v>0.74054131141075719</v>
+        <v>0.55518297048715437</v>
       </c>
       <c r="J35">
-        <v>0.70467728834885812</v>
+        <v>0.52101428692157448</v>
       </c>
       <c r="K35">
-        <v>44.567108154296882</v>
+        <v>32.656192779541023</v>
       </c>
       <c r="L35">
-        <v>58.852910995483398</v>
+        <v>45.332193374633789</v>
       </c>
       <c r="M35">
         <v>500</v>
@@ -2356,9 +2352,9 @@
         <v>91.2</v>
       </c>
     </row>
-    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="B36" t="s">
         <v>23</v>
@@ -2367,31 +2363,31 @@
         <v>21</v>
       </c>
       <c r="D36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E36">
-        <v>36.086893081665039</v>
+        <v>48.135185241699219</v>
       </c>
       <c r="F36">
-        <v>33.865928649902337</v>
+        <v>45.804023742675781</v>
       </c>
       <c r="G36">
-        <v>32.656192779541023</v>
+        <v>44.567108154296882</v>
       </c>
       <c r="H36">
-        <v>45.332193374633789</v>
+        <v>58.852910995483398</v>
       </c>
       <c r="I36">
-        <v>0.55518297048715437</v>
+        <v>0.74054131141075719</v>
       </c>
       <c r="J36">
-        <v>0.52101428692157448</v>
+        <v>0.70467728834885812</v>
       </c>
       <c r="K36">
-        <v>32.656192779541023</v>
+        <v>44.567108154296882</v>
       </c>
       <c r="L36">
-        <v>45.332193374633789</v>
+        <v>58.852910995483398</v>
       </c>
       <c r="M36">
         <v>500</v>
@@ -2400,7 +2396,7 @@
         <v>91.2</v>
       </c>
     </row>
-    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>3600</v>
       </c>
@@ -2444,7 +2440,7 @@
         <v>91.2</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>3700</v>
       </c>
@@ -2488,31 +2484,27 @@
         <v>124.13</v>
       </c>
       <c r="O38">
-        <f t="shared" si="2"/>
+        <f>F39/Tabelle1[[#This Row],[median_time]]</f>
         <v>1.3037475766145528</v>
       </c>
       <c r="P38">
-        <f t="shared" si="3"/>
+        <f>F40/Tabelle1[[#This Row],[median_time]]</f>
         <v>0.74975721679739593</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="4"/>
+        <f>F41/Tabelle1[[#This Row],[median_time]]</f>
+        <v>0.59665973000373518</v>
+      </c>
+      <c r="R38">
+        <f>F42/Tabelle1[[#This Row],[median_time]]</f>
         <v>0.79498070184799818</v>
       </c>
-      <c r="R38">
-        <f t="shared" si="5"/>
-        <v>0.59665973000373518</v>
-      </c>
       <c r="S38">
-        <f t="shared" si="1"/>
+        <f>F43/Tabelle1[[#This Row],[median_time]]</f>
         <v>0.5575262792807214</v>
       </c>
-      <c r="T38">
-        <f t="shared" si="0"/>
-        <v>0.39203477709602191</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>3800</v>
       </c>
@@ -2556,7 +2548,7 @@
         <v>124.13</v>
       </c>
     </row>
-    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>3900</v>
       </c>
@@ -2600,9 +2592,9 @@
         <v>124.13</v>
       </c>
     </row>
-    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="B41" t="s">
         <v>24</v>
@@ -2611,31 +2603,31 @@
         <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E41">
-        <v>58.816337585449219</v>
+        <v>42.709445953369141</v>
       </c>
       <c r="F41">
-        <v>53.282022476196289</v>
+        <v>39.989948272705078</v>
       </c>
       <c r="G41">
-        <v>50.64702033996582</v>
+        <v>38.03706169128418</v>
       </c>
       <c r="H41">
-        <v>79.48613166809082</v>
+        <v>52.108049392700202</v>
       </c>
       <c r="I41">
-        <v>0.61267018318176281</v>
+        <v>0.4448900620142619</v>
       </c>
       <c r="J41">
-        <v>0.55502106746037805</v>
+        <v>0.41656196117401117</v>
       </c>
       <c r="K41">
-        <v>50.64702033996582</v>
+        <v>38.03706169128418</v>
       </c>
       <c r="L41">
-        <v>79.48613166809082</v>
+        <v>52.108049392700202</v>
       </c>
       <c r="M41">
         <v>500</v>
@@ -2644,9 +2636,9 @@
         <v>124.13</v>
       </c>
     </row>
-    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="B42" t="s">
         <v>24</v>
@@ -2655,31 +2647,31 @@
         <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E42">
-        <v>42.709445953369141</v>
+        <v>58.816337585449219</v>
       </c>
       <c r="F42">
-        <v>39.989948272705078</v>
+        <v>53.282022476196289</v>
       </c>
       <c r="G42">
-        <v>38.03706169128418</v>
+        <v>50.64702033996582</v>
       </c>
       <c r="H42">
-        <v>52.108049392700202</v>
+        <v>79.48613166809082</v>
       </c>
       <c r="I42">
-        <v>0.4448900620142619</v>
+        <v>0.61267018318176281</v>
       </c>
       <c r="J42">
-        <v>0.41656196117401117</v>
+        <v>0.55502106746037805</v>
       </c>
       <c r="K42">
-        <v>38.03706169128418</v>
+        <v>50.64702033996582</v>
       </c>
       <c r="L42">
-        <v>52.108049392700202</v>
+        <v>79.48613166809082</v>
       </c>
       <c r="M42">
         <v>500</v>
@@ -2688,7 +2680,7 @@
         <v>124.13</v>
       </c>
     </row>
-    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>4200</v>
       </c>
@@ -2732,7 +2724,7 @@
         <v>124.13</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>4300</v>
       </c>
@@ -2776,31 +2768,27 @@
         <v>124.13</v>
       </c>
       <c r="O44">
-        <f t="shared" si="2"/>
+        <f>F45/Tabelle1[[#This Row],[median_time]]</f>
         <v>1.3392208433839983</v>
       </c>
       <c r="P44">
-        <f t="shared" si="3"/>
+        <f>F46/Tabelle1[[#This Row],[median_time]]</f>
         <v>0.84528393734197449</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="4"/>
+        <f>F47/Tabelle1[[#This Row],[median_time]]</f>
+        <v>0.62380118573628984</v>
+      </c>
+      <c r="R44">
+        <f>F48/Tabelle1[[#This Row],[median_time]]</f>
         <v>0.84720204016391065</v>
       </c>
-      <c r="R44">
-        <f t="shared" si="5"/>
-        <v>0.62380118573628984</v>
-      </c>
       <c r="S44">
-        <f t="shared" si="1"/>
+        <f>F49/Tabelle1[[#This Row],[median_time]]</f>
         <v>0.61865354994332877</v>
       </c>
-      <c r="T44">
-        <f t="shared" si="0"/>
-        <v>0.40301335920893616</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>4400</v>
       </c>
@@ -2844,7 +2832,7 @@
         <v>124.13</v>
       </c>
     </row>
-    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>4500</v>
       </c>
@@ -2888,9 +2876,9 @@
         <v>124.13</v>
       </c>
     </row>
-    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="B47" t="s">
         <v>24</v>
@@ -2899,31 +2887,31 @@
         <v>21</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E47">
-        <v>60.051536560058587</v>
+        <v>41.330718994140618</v>
       </c>
       <c r="F47">
-        <v>55.601835250854492</v>
+        <v>40.940046310424798</v>
       </c>
       <c r="G47">
-        <v>53.272008895874023</v>
+        <v>38.746833801269531</v>
       </c>
       <c r="H47">
-        <v>79.962015151977539</v>
+        <v>44.681787490844727</v>
       </c>
       <c r="I47">
-        <v>0.62553683916727709</v>
+        <v>0.43052832285563147</v>
       </c>
       <c r="J47">
-        <v>0.57918578386306763</v>
+        <v>0.42645881573359168</v>
       </c>
       <c r="K47">
-        <v>53.272008895874023</v>
+        <v>38.746833801269531</v>
       </c>
       <c r="L47">
-        <v>79.962015151977539</v>
+        <v>44.681787490844727</v>
       </c>
       <c r="M47">
         <v>500</v>
@@ -2932,9 +2920,9 @@
         <v>124.13</v>
       </c>
     </row>
-    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="B48" t="s">
         <v>24</v>
@@ -2943,31 +2931,31 @@
         <v>21</v>
       </c>
       <c r="D48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E48">
-        <v>41.330718994140618</v>
+        <v>60.051536560058587</v>
       </c>
       <c r="F48">
-        <v>40.940046310424798</v>
+        <v>55.601835250854492</v>
       </c>
       <c r="G48">
-        <v>38.746833801269531</v>
+        <v>53.272008895874023</v>
       </c>
       <c r="H48">
-        <v>44.681787490844727</v>
+        <v>79.962015151977539</v>
       </c>
       <c r="I48">
-        <v>0.43052832285563147</v>
+        <v>0.62553683916727709</v>
       </c>
       <c r="J48">
-        <v>0.42645881573359168</v>
+        <v>0.57918578386306763</v>
       </c>
       <c r="K48">
-        <v>38.746833801269531</v>
+        <v>53.272008895874023</v>
       </c>
       <c r="L48">
-        <v>44.681787490844727</v>
+        <v>79.962015151977539</v>
       </c>
       <c r="M48">
         <v>500</v>
@@ -3020,28 +3008,53 @@
         <v>124.13</v>
       </c>
     </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="N53" t="s">
+        <v>33</v>
+      </c>
+      <c r="O53">
+        <f>AVERAGE(O2:O20)</f>
+        <v>1.0756176071875927</v>
+      </c>
+      <c r="P53">
+        <f t="shared" ref="P53:S53" si="0">AVERAGE(P2:P20)</f>
+        <v>0.68470246149267477</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="0"/>
+        <v>0.50073860461743158</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="0"/>
+        <v>0.68117495341331369</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="0"/>
+        <v>0.48806142241910178</v>
+      </c>
+    </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="N54" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O54">
         <f>AVERAGE(O2:O44)</f>
         <v>1.1932295470228418</v>
       </c>
       <c r="P54">
-        <f t="shared" ref="P54:S54" si="6">AVERAGE(P2:P44)</f>
+        <f t="shared" ref="P54:S54" si="1">AVERAGE(P2:P44)</f>
         <v>0.71979636971823147</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
+        <v>0.54846953330034154</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="1"/>
         <v>0.74307142609519516</v>
       </c>
-      <c r="R54">
-        <f t="shared" si="6"/>
-        <v>0.54846953330034154</v>
-      </c>
       <c r="S54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0.53724783428272604</v>
       </c>
     </row>

--- a/logs/inference_time_extractive_overall.xlsx
+++ b/logs/inference_time_extractive_overall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelhermann/Source/DASP/code/dasp_onnx/logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD39EBAE-32D1-1B41-9926-680E8BA9CCAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6AAED3-A9F5-A740-ADEF-5A97CAE87974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19140" yWindow="-21100" windowWidth="35840" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-13080" yWindow="-21100" windowWidth="35840" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -316,7 +316,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F1B4376A-F5BE-7C4C-8306-C07BE2B2A623}" name="Tabelle1" displayName="Tabelle1" ref="A1:T49" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A1:T49" xr:uid="{F1B4376A-F5BE-7C4C-8306-C07BE2B2A623}">
-    <filterColumn colId="14">
+    <filterColumn colId="16">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
@@ -340,22 +340,22 @@
     <tableColumn id="12" xr3:uid="{3C338D86-ADF1-4940-A3D6-7457829B0FB3}" name="max_time_per_token"/>
     <tableColumn id="13" xr3:uid="{908819C0-1E47-BB4C-A84F-5DE342059AFD}" name="runs"/>
     <tableColumn id="14" xr3:uid="{8E1A97C7-BC70-204A-ACE0-85FC31AAFFE4}" name="av_seq_length"/>
-    <tableColumn id="15" xr3:uid="{0C9D2E05-618D-4146-BBE4-2438946151C8}" name="to base quant" dataDxfId="0">
+    <tableColumn id="15" xr3:uid="{0C9D2E05-618D-4146-BBE4-2438946151C8}" name="to base quant" dataDxfId="5">
       <calculatedColumnFormula>F3/Tabelle1[[#This Row],[median_time]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{5E70932A-ABE0-CF45-8860-FB4BB6D3F832}" name="to onnx" dataDxfId="3">
+    <tableColumn id="16" xr3:uid="{5E70932A-ABE0-CF45-8860-FB4BB6D3F832}" name="to onnx" dataDxfId="4">
       <calculatedColumnFormula>F4/Tabelle1[[#This Row],[median_time]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{CBC4448E-9811-BF4E-BDB7-D7C5138B21CE}" name="to onnx-opt" dataDxfId="2">
+    <tableColumn id="17" xr3:uid="{CBC4448E-9811-BF4E-BDB7-D7C5138B21CE}" name="to onnx-opt" dataDxfId="3">
       <calculatedColumnFormula>F5/Tabelle1[[#This Row],[median_time]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{6BDD8486-848D-0440-A4AE-FB9DBACB62AF}" name="to onnx quant" dataDxfId="4">
+    <tableColumn id="18" xr3:uid="{6BDD8486-848D-0440-A4AE-FB9DBACB62AF}" name="to onnx quant" dataDxfId="2">
       <calculatedColumnFormula>F6/Tabelle1[[#This Row],[median_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="19" xr3:uid="{6E46DF7A-6CF1-DD40-810C-0EEC289E75D5}" name="to onnx-opt quant" dataDxfId="1">
       <calculatedColumnFormula>F7/Tabelle1[[#This Row],[median_time]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{F840E59F-A7CD-0941-ABAD-5FEE396E3FA8}" name="min to max" dataDxfId="5"/>
+    <tableColumn id="20" xr3:uid="{F840E59F-A7CD-0941-ABAD-5FEE396E3FA8}" name="min to max" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -646,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T54"/>
+  <dimension ref="A1:T57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P56" sqref="P56:P57"/>
+    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
+      <selection activeCell="T38" sqref="T38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -662,11 +662,12 @@
     <col min="6" max="6" width="15.1640625" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="11.1640625" customWidth="1"/>
-    <col min="9" max="9" width="21.1640625" customWidth="1"/>
-    <col min="10" max="10" width="22.6640625" customWidth="1"/>
-    <col min="11" max="11" width="19.83203125" customWidth="1"/>
-    <col min="12" max="12" width="20" customWidth="1"/>
-    <col min="14" max="14" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="21.1640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="22.6640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="19.83203125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="20" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="13.83203125" customWidth="1"/>
     <col min="16" max="16" width="9.33203125" customWidth="1"/>
     <col min="17" max="17" width="13.6640625" customWidth="1"/>
@@ -788,12 +789,12 @@
         <v>0.72829898406206506</v>
       </c>
       <c r="Q2">
+        <f>F6/Tabelle1[[#This Row],[median_time]]</f>
+        <v>0.75847881351957491</v>
+      </c>
+      <c r="R2">
         <f>F5/Tabelle1[[#This Row],[median_time]]</f>
         <v>0.5213497059127038</v>
-      </c>
-      <c r="R2">
-        <f>F6/Tabelle1[[#This Row],[median_time]]</f>
-        <v>0.75847881351957491</v>
       </c>
       <c r="S2">
         <f>F7/Tabelle1[[#This Row],[median_time]]</f>
@@ -1072,12 +1073,12 @@
         <v>0.7016980199459194</v>
       </c>
       <c r="Q8">
+        <f>F12/Tabelle1[[#This Row],[median_time]]</f>
+        <v>0.69802358037972856</v>
+      </c>
+      <c r="R8">
         <f>F11/Tabelle1[[#This Row],[median_time]]</f>
         <v>0.4997764806792081</v>
-      </c>
-      <c r="R8">
-        <f>F12/Tabelle1[[#This Row],[median_time]]</f>
-        <v>0.69802358037972856</v>
       </c>
       <c r="S8">
         <f>F13/Tabelle1[[#This Row],[median_time]]</f>
@@ -1356,12 +1357,12 @@
         <v>0.67173367845571708</v>
       </c>
       <c r="Q14">
+        <f>F18/Tabelle1[[#This Row],[median_time]]</f>
+        <v>0.64634945806269162</v>
+      </c>
+      <c r="R14">
         <f>F17/Tabelle1[[#This Row],[median_time]]</f>
         <v>0.48467143803323537</v>
-      </c>
-      <c r="R14">
-        <f>F18/Tabelle1[[#This Row],[median_time]]</f>
-        <v>0.64634945806269162</v>
       </c>
       <c r="S14">
         <f>F19/Tabelle1[[#This Row],[median_time]]</f>
@@ -1640,12 +1641,12 @@
         <v>0.63707916350699756</v>
       </c>
       <c r="Q20">
+        <f>F24/Tabelle1[[#This Row],[median_time]]</f>
+        <v>0.62184796169125978</v>
+      </c>
+      <c r="R20">
         <f>F23/Tabelle1[[#This Row],[median_time]]</f>
         <v>0.49715679384457934</v>
-      </c>
-      <c r="R20">
-        <f>F24/Tabelle1[[#This Row],[median_time]]</f>
-        <v>0.62184796169125978</v>
       </c>
       <c r="S20">
         <f>F25/Tabelle1[[#This Row],[median_time]]</f>
@@ -1924,12 +1925,12 @@
         <v>0.72045599642813918</v>
       </c>
       <c r="Q26">
+        <f>F30/Tabelle1[[#This Row],[median_time]]</f>
+        <v>0.78552979123809208</v>
+      </c>
+      <c r="R26">
         <f>F29/Tabelle1[[#This Row],[median_time]]</f>
         <v>0.57864561383011126</v>
-      </c>
-      <c r="R26">
-        <f>F30/Tabelle1[[#This Row],[median_time]]</f>
-        <v>0.78552979123809208</v>
       </c>
       <c r="S26">
         <f>F31/Tabelle1[[#This Row],[median_time]]</f>
@@ -2208,12 +2209,12 @@
         <v>0.70406396120764303</v>
       </c>
       <c r="Q32">
+        <f>F36/Tabelle1[[#This Row],[median_time]]</f>
+        <v>0.79215906185830565</v>
+      </c>
+      <c r="R32">
         <f>F35/Tabelle1[[#This Row],[median_time]]</f>
         <v>0.58569531836287003</v>
-      </c>
-      <c r="R32">
-        <f>F36/Tabelle1[[#This Row],[median_time]]</f>
-        <v>0.79215906185830565</v>
       </c>
       <c r="S32">
         <f>F37/Tabelle1[[#This Row],[median_time]]</f>
@@ -2492,12 +2493,12 @@
         <v>0.74975721679739593</v>
       </c>
       <c r="Q38">
+        <f>F42/Tabelle1[[#This Row],[median_time]]</f>
+        <v>0.79498070184799818</v>
+      </c>
+      <c r="R38">
         <f>F41/Tabelle1[[#This Row],[median_time]]</f>
         <v>0.59665973000373518</v>
-      </c>
-      <c r="R38">
-        <f>F42/Tabelle1[[#This Row],[median_time]]</f>
-        <v>0.79498070184799818</v>
       </c>
       <c r="S38">
         <f>F43/Tabelle1[[#This Row],[median_time]]</f>
@@ -2776,12 +2777,12 @@
         <v>0.84528393734197449</v>
       </c>
       <c r="Q44">
+        <f>F48/Tabelle1[[#This Row],[median_time]]</f>
+        <v>0.84720204016391065</v>
+      </c>
+      <c r="R44">
         <f>F47/Tabelle1[[#This Row],[median_time]]</f>
         <v>0.62380118573628984</v>
-      </c>
-      <c r="R44">
-        <f>F48/Tabelle1[[#This Row],[median_time]]</f>
-        <v>0.84720204016391065</v>
       </c>
       <c r="S44">
         <f>F49/Tabelle1[[#This Row],[median_time]]</f>
@@ -3022,11 +3023,11 @@
       </c>
       <c r="Q53">
         <f t="shared" si="0"/>
-        <v>0.50073860461743158</v>
+        <v>0.68117495341331369</v>
       </c>
       <c r="R53">
         <f t="shared" si="0"/>
-        <v>0.68117495341331369</v>
+        <v>0.50073860461743158</v>
       </c>
       <c r="S53">
         <f t="shared" si="0"/>
@@ -3047,15 +3048,59 @@
       </c>
       <c r="Q54">
         <f t="shared" si="1"/>
-        <v>0.54846953330034154</v>
+        <v>0.74307142609519516</v>
       </c>
       <c r="R54">
         <f t="shared" si="1"/>
-        <v>0.74307142609519516</v>
+        <v>0.54846953330034154</v>
       </c>
       <c r="S54">
         <f t="shared" si="1"/>
         <v>0.53724783428272604</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O56">
+        <f>1/O53</f>
+        <v>0.92969842936533054</v>
+      </c>
+      <c r="P56">
+        <f t="shared" ref="P56:S57" si="2">1/P53</f>
+        <v>1.4604883964050104</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="2"/>
+        <v>1.4680516290111363</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="2"/>
+        <v>1.9970499393870544</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="2"/>
+        <v>2.0489224389902567</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O57">
+        <f>1/O54</f>
+        <v>0.83806171452512412</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="2"/>
+        <v>1.389281805340941</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="2"/>
+        <v>1.3457656490102872</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="2"/>
+        <v>1.8232553301231422</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="2"/>
+        <v>1.8613383548303912</v>
       </c>
     </row>
   </sheetData>
